--- a/notebook/part2_rdp_report_template.xlsx
+++ b/notebook/part2_rdp_report_template.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drive_d\Project\Code\xlwings_project\notebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A841A7-9292-4B8C-8488-BB84BD8EFBD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F3E5273-0A6A-45C7-9D2B-69836BE1109F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Intel vs AMD Daiy Price" sheetId="4" r:id="rId1"/>
+    <sheet name="Intel vs AMD Daily Price" sheetId="4" r:id="rId1"/>
     <sheet name="Intel vs AMD Volume" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -495,8 +495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB8FC013-95A6-4FF9-BDAB-F9F2B6095DAD}">
   <dimension ref="A1:U11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02D73A5B-02D3-46B4-9463-35316D3660EB}">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/notebook/part2_rdp_report_template.xlsx
+++ b/notebook/part2_rdp_report_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drive_d\Project\Code\xlwings_project\notebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F3E5273-0A6A-45C7-9D2B-69836BE1109F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F649477-CADF-486C-BC8C-DCE0043274A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
